--- a/Data/H5N1_Outbreaks/HPAI_Poulty_Farms.xlsx
+++ b/Data/H5N1_Outbreaks/HPAI_Poulty_Farms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/H5N1/Data/H5N1_Outbreaks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{4D34A9C4-F07C-402E-9D5B-1C2E19EFBF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF4AE6C-6065-4ADF-97FB-53061C218807}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="13_ncr:1_{4D34A9C4-F07C-402E-9D5B-1C2E19EFBF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{215A3B1F-9A26-4E55-8B69-AD68FB1C28E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="2017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="2085">
   <si>
     <t>California</t>
   </si>
@@ -6088,6 +6088,210 @@
   </si>
   <si>
     <t>Total_Indicator</t>
+  </si>
+  <si>
+    <t>19-Nov-24</t>
+  </si>
+  <si>
+    <t>Fresno 17</t>
+  </si>
+  <si>
+    <t>Merced 14</t>
+  </si>
+  <si>
+    <t>Whatcom 02</t>
+  </si>
+  <si>
+    <t>18-Nov-24</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Honolulu 02</t>
+  </si>
+  <si>
+    <t>15-Nov-24</t>
+  </si>
+  <si>
+    <t>Stanislaus 06</t>
+  </si>
+  <si>
+    <t>Honolulu 01</t>
+  </si>
+  <si>
+    <t>Piute</t>
+  </si>
+  <si>
+    <t>Piute 02</t>
+  </si>
+  <si>
+    <t>14-Nov-24</t>
+  </si>
+  <si>
+    <t>Fresno 13</t>
+  </si>
+  <si>
+    <t>Fresno 14</t>
+  </si>
+  <si>
+    <t>Fresno 15</t>
+  </si>
+  <si>
+    <t>Fresno 16</t>
+  </si>
+  <si>
+    <t>Kings 06</t>
+  </si>
+  <si>
+    <t>Kings 07</t>
+  </si>
+  <si>
+    <t>Merced 13</t>
+  </si>
+  <si>
+    <t>San Joaquin 05</t>
+  </si>
+  <si>
+    <t>Weld 14</t>
+  </si>
+  <si>
+    <t>13-Nov-24</t>
+  </si>
+  <si>
+    <t>Pinal</t>
+  </si>
+  <si>
+    <t>Pinal 01</t>
+  </si>
+  <si>
+    <t>Tulare</t>
+  </si>
+  <si>
+    <t>Tulare 04</t>
+  </si>
+  <si>
+    <t>Malheur</t>
+  </si>
+  <si>
+    <t>Malheur 01</t>
+  </si>
+  <si>
+    <t>12-Nov-24</t>
+  </si>
+  <si>
+    <t>Fresno 11</t>
+  </si>
+  <si>
+    <t>Fresno 12</t>
+  </si>
+  <si>
+    <t>Commercial Turkey Breeder Replacement Toms</t>
+  </si>
+  <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>Kern 01</t>
+  </si>
+  <si>
+    <t>Missoula 04</t>
+  </si>
+  <si>
+    <t>Piute 01</t>
+  </si>
+  <si>
+    <t>07-Nov-24</t>
+  </si>
+  <si>
+    <t>Snohomish 10</t>
+  </si>
+  <si>
+    <t>02-Nov-24</t>
+  </si>
+  <si>
+    <t>Sacramento 05</t>
+  </si>
+  <si>
+    <t>Sonoma 13</t>
+  </si>
+  <si>
+    <t>01-Nov-24</t>
+  </si>
+  <si>
+    <t>Flathead 04</t>
+  </si>
+  <si>
+    <t>Okanogan 02</t>
+  </si>
+  <si>
+    <t>30-Oct-24</t>
+  </si>
+  <si>
+    <t>Fresno 09</t>
+  </si>
+  <si>
+    <t>Venango</t>
+  </si>
+  <si>
+    <t>Venango 01</t>
+  </si>
+  <si>
+    <t>29-Oct-24</t>
+  </si>
+  <si>
+    <t>Kings 01</t>
+  </si>
+  <si>
+    <t>Tulare 03</t>
+  </si>
+  <si>
+    <t>25-Oct-24</t>
+  </si>
+  <si>
+    <t>Crook</t>
+  </si>
+  <si>
+    <t>Crook 01</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Lewis 01</t>
+  </si>
+  <si>
+    <t>24-Oct-24</t>
+  </si>
+  <si>
+    <t>Tulare 02</t>
+  </si>
+  <si>
+    <t>23-Oct-24</t>
+  </si>
+  <si>
+    <t>Clackamas 03</t>
+  </si>
+  <si>
+    <t>17-Oct-24</t>
+  </si>
+  <si>
+    <t>Kitsap 03</t>
+  </si>
+  <si>
+    <t>16-Oct-24</t>
+  </si>
+  <si>
+    <t>Tulare 01</t>
+  </si>
+  <si>
+    <t>15-Oct-24</t>
+  </si>
+  <si>
+    <t>Cache 04</t>
   </si>
 </sst>
 </file>
@@ -6097,7 +6301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -6117,6 +6321,10 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -6144,11 +6352,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6170,10 +6380,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{52E7A65E-86FD-44D0-A44E-A4D109ED8E52}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{C65EC92F-9D8B-413F-B48D-7DE34A7CA91F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6509,10 +6727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290F2E5-1B1D-40A3-AAA5-04B22AD6874B}">
-  <dimension ref="A1:K1179"/>
+  <dimension ref="A1:K1227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F1179"/>
+    <sheetView tabSelected="1" topLeftCell="A1161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1183" sqref="A1183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54797,7 +55015,1924 @@
         <v>1</v>
       </c>
       <c r="K1179">
-        <v>29000</v>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1180" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1180" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1180" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1180" s="9" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1180" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1180" s="4">
+        <f t="shared" ref="F1180:F1227" si="268">SUM(G1180:J1180)</f>
+        <v>1</v>
+      </c>
+      <c r="G1180" s="4">
+        <f t="shared" ref="G1180:G1227" si="269">IF(ISNUMBER(SEARCH("Pullet",E1180)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H1180" s="4">
+        <f t="shared" ref="H1180:H1227" si="270">IF(ISNUMBER(SEARCH("Broiler",E1180)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I1180" s="4">
+        <f t="shared" ref="I1180:I1227" si="271">IF(ISNUMBER(SEARCH("Layer",E1180)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J1180" s="4">
+        <f t="shared" ref="J1180:J1227" si="272">IF(ISNUMBER(SEARCH("Turkey",E1180)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K1180">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1181" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1181" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1181" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1181" s="9" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E1181" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1181" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1181" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1181" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1181" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1181" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1181">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1182" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1182" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1182" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1182" s="9" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E1182" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1182" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1182" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1182" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1182" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1182" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1183" s="10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1183" s="9" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1183" s="9" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D1183" s="9" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1183" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1183" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1183" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1183" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1183" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1183" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1183">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1184" s="10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1184" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1184" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1184" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E1184" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1184" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1184" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1184" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1184" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1184" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1184">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1185" s="10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1185" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1185" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1185" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E1185" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1185" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1185" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1185" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1185" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1185" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1185">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1186" s="10" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1186" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1186" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1186" s="9" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1186" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1186" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1186" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1186" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1186" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1186" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1186">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1187" s="10" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1187" s="9" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1187" s="9" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D1187" s="9" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E1187" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1187" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1187" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1187" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1187" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1187" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1188" s="10" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1188" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1188" s="9" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D1188" s="9" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E1188" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1188" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1188" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1188" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1188" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1188" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1188">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1189" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1189" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1189" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1189" s="9" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E1189" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1189" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1189" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1189" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1189" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1189" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1189">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1190" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1190" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1190" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1190" s="9" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E1190" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1190" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1190" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1190" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1190" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1190" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1190">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1191" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1191" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1191" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1191" s="9" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E1191" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1191" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1191" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1191" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1191" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1191" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1191">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1192" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1192" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1192" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1192" s="9" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E1192" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1192" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1192" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1192" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1192" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1192">
+        <v>279300</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1193" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1193" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1193" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1193" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="E1193" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1193" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1193" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1193" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1193" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1193">
+        <v>53300</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1194" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1194" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1194" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1194" s="9" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E1194" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1194" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1194" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1194" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1194" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1195" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1195" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1195" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1195" s="9" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E1195" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1195" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1195" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1195" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1195" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1195" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1195">
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1196" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1196" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1196" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1196" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1196" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1196" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1196" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1196" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1196" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1196" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1196">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1197" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1197" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1197" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1197" s="9" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E1197" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1197" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1197" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1197" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1197" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1197">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1198" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1198" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1198" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1198" s="9" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1198" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1198" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1198" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1198" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1198" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1198" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1199" s="10" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1199" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1199" s="9" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D1199" s="9" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E1199" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1199" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1199" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1199" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1199" s="4">
+        <f t="shared" si="271"/>
+        <v>1</v>
+      </c>
+      <c r="J1199" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1199">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1200" s="10" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1200" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1200" s="9" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D1200" s="9" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E1200" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1200" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1200" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1200" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1200" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1200" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1201" s="10" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1201" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1201" s="9" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D1201" s="9" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E1201" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1201" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1201" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1201" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1201" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1201" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1201">
+        <v>237700</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1202" s="10" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1202" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1202" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1202" s="9" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E1202" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1202" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1202" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1202" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1202" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1202">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1203" s="10" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1203" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1203" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1203" s="9" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E1203" s="9" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F1203" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1203" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1203" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1203" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1203" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1203">
+        <v>2155100</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1204" s="10" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1204" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1204" s="9" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D1204" s="9" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E1204" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1204" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1204" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1204" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1204" s="4">
+        <f t="shared" si="271"/>
+        <v>1</v>
+      </c>
+      <c r="J1204" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1204">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1205" s="10" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1205" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1205" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1205" s="9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E1205" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1205" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1205" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1205" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1205" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1205" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1205">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1206" s="10" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1206" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1206" s="9" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D1206" s="9" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E1206" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1206" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1206" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1206" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1206" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1206" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1206">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1207" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1207" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1207" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1207" s="9" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E1207" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1207" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1207" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1207" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1207" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1207" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1207">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1208" s="10" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1208" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1208" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1208" s="9" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E1208" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1208" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1208" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1208" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1208" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1208" s="4">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="K1208">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1209" s="10" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1209" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1209" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1209" s="9" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E1209" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1209" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1209" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1209" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1209" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1209" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1209">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1210" s="10" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1210" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1210" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1210" s="9" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E1210" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1210" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1210" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1210" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1210" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1210" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1210">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1211" s="10" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1211" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1211" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1211" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E1211" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1211" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1211" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1211" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1211" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1211" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1211">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1212" s="10" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1212" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1212" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1212" s="9" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E1212" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1212" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1212" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1212" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1212" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1212" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1212">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1213" s="10" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1213" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1213" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1213" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1213" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1213" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1213" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1213" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1213" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1213" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1213">
+        <v>204600</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1214" s="10" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1214" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1214" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1214" s="9" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E1214" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1214" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1214" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1214" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1214" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1214">
+        <v>117200</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1215" s="10" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1215" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1215" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1215" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1215" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1215" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1215" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1215" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1215" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1215">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1216" s="10" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1216" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1216" s="9" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D1216" s="9" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E1216" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1216" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1216" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1216" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1216" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1216" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1216">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1217" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1217" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1217" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1217" s="9" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E1217" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1217" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1217" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1217" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1217" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1217">
+        <v>305500</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1218" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1218" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1218" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1218" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="E1218" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1218" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1218" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1218" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1218" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1219" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1219" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1219" s="9" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D1219" s="9" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E1219" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1219" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1219" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1219" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1219" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1219" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1219">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1220" s="10" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1220" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1220" s="9" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D1220" s="9" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E1220" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1220" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1220" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1220" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1220" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1220" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1220">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1221" s="10" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1221" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1221" s="9" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1221" s="9" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E1221" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1221" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1221" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1221" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1221" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1221" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1221">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1222" s="9" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1222" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1222" s="9" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D1222" s="9" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1222" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1222" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1222" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1222" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1222" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1222">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1223" s="9" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1223" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1223" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1223" s="9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E1223" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1223" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1223" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1223" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1223" s="4">
+        <f t="shared" si="271"/>
+        <v>1</v>
+      </c>
+      <c r="J1223" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1223">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1224" s="9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1224" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1224" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1224" s="9" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E1224" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1224" s="4">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="G1224" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1224" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1224" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1224" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1224">
+        <v>786600</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1225" s="9" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1225" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1225" s="9" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D1225" s="9" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E1225" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1225" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1225" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1225" s="4">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" s="4">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="J1225" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1225">
+        <v>1852900</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1226" s="10" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1226" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1226" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1226" s="9" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E1226" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1226" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1226" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1226" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1226" s="4">
+        <f t="shared" si="271"/>
+        <v>1</v>
+      </c>
+      <c r="J1226" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="K1226">
+        <v>839700</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1227" s="10" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1227" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1227" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1227" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="E1227" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1227" s="4">
+        <f t="shared" si="268"/>
+        <v>1</v>
+      </c>
+      <c r="G1227" s="4">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="H1227" s="4">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="I1227" s="4">
+        <f t="shared" si="271"/>
+        <v>1</v>
+      </c>
+      <c r="J1227" s="4">
+        <f t="shared" si="272"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -54811,7 +56946,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54824,7 +56959,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
-        <v>45575</v>
+        <v>45616</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2000</v>

--- a/Data/H5N1_Outbreaks/HPAI_Poulty_Farms.xlsx
+++ b/Data/H5N1_Outbreaks/HPAI_Poulty_Farms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/H5N1/Data/H5N1_Outbreaks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{4D34A9C4-F07C-402E-9D5B-1C2E19EFBF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8D86C8E-2727-492E-A731-6B694646A63E}"/>
+  <xr:revisionPtr revIDLastSave="585" documentId="13_ncr:1_{4D34A9C4-F07C-402E-9D5B-1C2E19EFBF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A354496C-C5F5-436C-AEBE-E3504D7A6440}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3477,6 +3477,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3798,8 +3802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290F2E5-1B1D-40A3-AAA5-04B22AD6874B}">
   <dimension ref="A1:I1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E513" sqref="E513"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120:D1597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58989,6 +58993,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1623" xr:uid="{D290F2E5-1B1D-40A3-AAA5-04B22AD6874B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
